--- a/ExamSolutionAug11/src/main/resources/Exam_info.xlsx
+++ b/ExamSolutionAug11/src/main/resources/Exam_info.xlsx
@@ -1,25 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhishekgayen/Downloads/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49018643-F49F-B44F-8076-502A3F577822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" activeTab="2" xr2:uid="{AA7A81E4-0C64-4AC8-A414-7B6FB661CF94}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="20730" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="employee" sheetId="1" r:id="rId1"/>
     <sheet name="skill" sheetId="2" r:id="rId2"/>
     <sheet name="employee_skill" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -168,8 +162,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -285,7 +279,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -337,7 +331,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -531,29 +525,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{487D2C10-1E71-4A9A-92B9-EFCE42B0A330}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="19.83203125" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="1" max="2" width="19.85546875" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="24.6640625" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -570,7 +564,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>101</v>
       </c>
@@ -587,7 +581,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>102</v>
       </c>
@@ -604,7 +598,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>103</v>
       </c>
@@ -621,7 +615,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>104</v>
       </c>
@@ -638,7 +632,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>105</v>
       </c>
@@ -655,7 +649,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>106</v>
       </c>
@@ -672,7 +666,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>107</v>
       </c>
@@ -689,7 +683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>108</v>
       </c>
@@ -706,7 +700,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>109</v>
       </c>
@@ -723,7 +717,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>110</v>
       </c>
@@ -742,36 +736,36 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{B3FB021B-FACC-449C-9E0E-D0830340A8FD}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{9C646838-8467-4A72-993D-2FA2F52AAB03}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{16DFC39F-08CD-4E01-81D3-8A4E52FF7F86}"/>
-    <hyperlink ref="D5" r:id="rId4" xr:uid="{85E4A2F8-97B4-44F4-85BC-897CCCCC8A57}"/>
-    <hyperlink ref="D6" r:id="rId5" xr:uid="{3C84802C-006F-41D5-B7FC-8FF6B1F61081}"/>
-    <hyperlink ref="D7" r:id="rId6" xr:uid="{8399E13B-587F-4C35-A4E4-A8F5071B0AFF}"/>
-    <hyperlink ref="D9" r:id="rId7" xr:uid="{4BCF4A5E-DF78-4A66-B71F-942092441B60}"/>
-    <hyperlink ref="D10" r:id="rId8" xr:uid="{5A86B591-3D06-4ECF-80FF-32081CF8F1BA}"/>
-    <hyperlink ref="D11" r:id="rId9" xr:uid="{93E3C9B3-CC77-4A43-BEB0-E6F0D1660F6A}"/>
-    <hyperlink ref="D8" r:id="rId10" xr:uid="{2D7BC5B4-CBDC-49F6-85B9-F7DFFD6F823B}"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="D6" r:id="rId5"/>
+    <hyperlink ref="D7" r:id="rId6"/>
+    <hyperlink ref="D9" r:id="rId7"/>
+    <hyperlink ref="D10" r:id="rId8"/>
+    <hyperlink ref="D11" r:id="rId9"/>
+    <hyperlink ref="D8" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{335762A2-FA45-974A-B25E-E540C9619F42}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>39</v>
       </c>
@@ -779,7 +773,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -787,7 +781,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -795,7 +789,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -803,7 +797,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -811,7 +805,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>1005</v>
       </c>
@@ -819,7 +813,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>1006</v>
       </c>
@@ -833,19 +827,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3178ACF-6003-4F4B-A644-8C62CC32BF99}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -853,7 +847,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>101</v>
       </c>
@@ -861,7 +855,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>102</v>
       </c>
@@ -869,7 +863,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>103</v>
       </c>
@@ -877,15 +871,15 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>101</v>
       </c>
       <c r="B5">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>104</v>
       </c>
@@ -893,7 +887,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>106</v>
       </c>
@@ -901,7 +895,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8">
         <v>105</v>
       </c>
@@ -909,7 +903,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9">
         <v>106</v>
       </c>
@@ -917,7 +911,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10">
         <v>107</v>
       </c>
@@ -925,7 +919,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11">
         <v>108</v>
       </c>
@@ -933,7 +927,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12">
         <v>109</v>
       </c>
@@ -941,7 +935,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13">
         <v>102</v>
       </c>
@@ -949,7 +943,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14">
         <v>103</v>
       </c>
@@ -957,7 +951,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15">
         <v>104</v>
       </c>
